--- a/test.xlsx
+++ b/test.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="user" r:id="rId3" sheetId="1"/>
+    <sheet name="role" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,92 +104,118 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>roleName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>nickName</t>
+          <t>content</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>icon</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>isDeleted</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>createUser</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>createTime</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>updateUser</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>updateTime</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>13688480191</t>
-        </is>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>1.58661962353229414E18</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>mnsx_vwaww52</t>
-        </is>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="n">
+          <t>用户</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>0.0</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>19900000001</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>1.58519601133613466E18</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>test002@qq.com</t>
+          <t>dev</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>sb</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>/pic</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+          <t>开发攻城狮</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>0.0</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>19983183167</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>1.58519586777769165E18</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>xx1527030652@gmail.com</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Mnsx_x</t>
-        </is>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="n">
+          <t>超级管理员</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>0.0</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
